--- a/docs/StructureDefinition-PacienteLE.xlsx
+++ b/docs/StructureDefinition-PacienteLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -479,10 +479,10 @@
     <t>NacionalidadCodigo</t>
   </si>
   <si>
-    <t>Patient.extension:IdentidadGenero</t>
-  </si>
-  <si>
-    <t>IdentidadGenero</t>
+    <t>Patient.extension:GeneroCodigo</t>
+  </si>
+  <si>
+    <t>GeneroCodigo</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/IdentidadGenero}

--- a/docs/StructureDefinition-PacienteLE.xlsx
+++ b/docs/StructureDefinition-PacienteLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:20:48-03:00</t>
+    <t>2023-01-19T11:18:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PacienteLE.xlsx
+++ b/docs/StructureDefinition-PacienteLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8891" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8891" uniqueCount="844">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/StructureDefinition/CorePacienteCl</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/StructureDefinition/CorePacienteCl</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>nacionalidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/corecl/StructureDefinition/CodigoPaises}
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/CoreCL/StructureDefinition/CodigoPaises}
 </t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>Value Set de Tipos de Documentos y CI Nacionales</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/ValueSet/VSTiposDocumentos</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/ValueSet/VSTiposDocumentos</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1487,9 +1487,6 @@
     <t>Nombre Social</t>
   </si>
   <si>
-    <t>Nombre Social del Paciente</t>
-  </si>
-  <si>
     <t>Patient.name:NombreSocial.prefix</t>
   </si>
   <si>
@@ -1928,7 +1925,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7chile.cl/fhir/ig/corecl/StructureDefinition/cl-address}
+    <t xml:space="preserve">Address {https://hl7chile.cl/fhir/ig/CoreCL/StructureDefinition/cl-address}
 </t>
   </si>
   <si>
@@ -2068,7 +2065,7 @@
     <t>IdContacto</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/corecl/StructureDefinition/IdContacto}
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/CoreCL/StructureDefinition/IdContacto}
 </t>
   </si>
   <si>
@@ -2370,7 +2367,7 @@
     <t>Value Set de HL7, # de elementos es muy grande para poder visualizarlo</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/ValueSet/VSCodigoslenguaje</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/ValueSet/VSCodigoslenguaje</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
@@ -2950,7 +2947,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.5859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2965,7 +2962,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.55859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.48046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.38671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="74.07421875" customWidth="true" bestFit="true"/>
@@ -15204,7 +15201,7 @@
         <v>476</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>434</v>
@@ -15289,7 +15286,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>439</v>
@@ -15404,7 +15401,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>446</v>
@@ -15519,7 +15516,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>453</v>
@@ -15636,10 +15633,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15662,19 +15659,19 @@
         <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -15714,7 +15711,7 @@
         <v>173</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>77</v>
@@ -15723,7 +15720,7 @@
         <v>134</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -15738,16 +15735,16 @@
         <v>96</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL109" t="s" s="2">
+      <c r="AM109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN109" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>77</v>
@@ -15755,10 +15752,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15870,10 +15867,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15987,10 +15984,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16016,10 +16013,10 @@
         <v>104</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16049,52 +16046,52 @@
         <v>196</v>
       </c>
       <c r="Y112" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z112" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z112" t="s" s="2">
+      <c r="AA112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF112" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AA112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF112" t="s" s="2">
+      <c r="AG112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI112" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>77</v>
@@ -16102,10 +16099,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16131,16 +16128,16 @@
         <v>180</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -16189,7 +16186,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -16204,16 +16201,16 @@
         <v>96</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>77</v>
@@ -16221,10 +16218,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16250,16 +16247,16 @@
         <v>104</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -16288,25 +16285,25 @@
       </c>
       <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF114" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -16330,7 +16327,7 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>77</v>
@@ -16338,10 +16335,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16364,16 +16361,16 @@
         <v>85</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16423,7 +16420,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -16455,10 +16452,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16484,10 +16481,10 @@
         <v>292</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16538,7 +16535,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -16570,13 +16567,13 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C117" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>77</v>
@@ -16598,19 +16595,19 @@
         <v>85</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>77</v>
@@ -16659,7 +16656,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -16674,16 +16671,16 @@
         <v>96</v>
       </c>
       <c r="AK117" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL117" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL117" t="s" s="2">
+      <c r="AM117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>77</v>
@@ -16691,10 +16688,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16806,10 +16803,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16923,10 +16920,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16952,10 +16949,10 @@
         <v>104</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16967,7 +16964,7 @@
         <v>77</v>
       </c>
       <c r="S120" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T120" t="s" s="2">
         <v>77</v>
@@ -16985,52 +16982,52 @@
         <v>196</v>
       </c>
       <c r="Y120" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z120" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z120" t="s" s="2">
+      <c r="AA120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF120" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AA120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF120" t="s" s="2">
+      <c r="AG120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI120" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>77</v>
@@ -17038,10 +17035,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17067,16 +17064,16 @@
         <v>180</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -17125,7 +17122,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
@@ -17140,16 +17137,16 @@
         <v>96</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN121" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>77</v>
@@ -17157,10 +17154,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17186,16 +17183,16 @@
         <v>104</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>77</v>
@@ -17205,7 +17202,7 @@
         <v>77</v>
       </c>
       <c r="S122" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T122" t="s" s="2">
         <v>77</v>
@@ -17224,25 +17221,25 @@
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF122" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
@@ -17266,7 +17263,7 @@
         <v>77</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>77</v>
@@ -17274,10 +17271,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17300,16 +17297,16 @@
         <v>85</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17359,7 +17356,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>75</v>
@@ -17391,10 +17388,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17420,10 +17417,10 @@
         <v>292</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17474,7 +17471,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
@@ -17506,13 +17503,13 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C125" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>77</v>
@@ -17534,19 +17531,19 @@
         <v>85</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N125" t="s" s="2">
+      <c r="O125" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
@@ -17595,7 +17592,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
@@ -17610,16 +17607,16 @@
         <v>96</v>
       </c>
       <c r="AK125" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL125" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL125" t="s" s="2">
+      <c r="AM125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN125" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>77</v>
@@ -17627,10 +17624,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17742,10 +17739,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17859,10 +17856,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17888,10 +17885,10 @@
         <v>104</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -17903,7 +17900,7 @@
         <v>77</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>77</v>
@@ -17921,52 +17918,52 @@
         <v>196</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z128" t="s" s="2">
+      <c r="AA128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF128" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AA128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF128" t="s" s="2">
+      <c r="AG128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI128" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK128" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN128" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>77</v>
@@ -17974,10 +17971,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18003,16 +18000,16 @@
         <v>180</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -18061,7 +18058,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>75</v>
@@ -18076,16 +18073,16 @@
         <v>96</v>
       </c>
       <c r="AK129" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN129" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>77</v>
@@ -18093,10 +18090,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18122,16 +18119,16 @@
         <v>104</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -18141,7 +18138,7 @@
         <v>77</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>77</v>
@@ -18160,25 +18157,25 @@
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF130" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>75</v>
@@ -18202,7 +18199,7 @@
         <v>77</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>77</v>
@@ -18210,10 +18207,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18236,16 +18233,16 @@
         <v>85</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -18256,7 +18253,7 @@
         <v>77</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>77</v>
@@ -18295,7 +18292,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>75</v>
@@ -18327,10 +18324,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18356,10 +18353,10 @@
         <v>292</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -18410,7 +18407,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>75</v>
@@ -18442,13 +18439,13 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C133" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -18470,19 +18467,19 @@
         <v>85</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -18531,7 +18528,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>75</v>
@@ -18546,16 +18543,16 @@
         <v>96</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL133" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL133" t="s" s="2">
+      <c r="AM133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN133" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>77</v>
@@ -18563,10 +18560,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18678,10 +18675,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18795,10 +18792,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18824,10 +18821,10 @@
         <v>104</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -18839,7 +18836,7 @@
         <v>77</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>77</v>
@@ -18857,52 +18854,52 @@
         <v>196</v>
       </c>
       <c r="Y136" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z136" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z136" t="s" s="2">
+      <c r="AA136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF136" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AA136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF136" t="s" s="2">
+      <c r="AG136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI136" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK136" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN136" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>77</v>
@@ -18910,10 +18907,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18939,16 +18936,16 @@
         <v>180</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N137" t="s" s="2">
+      <c r="O137" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>77</v>
@@ -18997,7 +18994,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>75</v>
@@ -19012,16 +19009,16 @@
         <v>96</v>
       </c>
       <c r="AK137" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN137" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>77</v>
@@ -19029,10 +19026,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19058,16 +19055,16 @@
         <v>104</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -19077,7 +19074,7 @@
         <v>77</v>
       </c>
       <c r="S138" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T138" t="s" s="2">
         <v>77</v>
@@ -19096,25 +19093,25 @@
       </c>
       <c r="Y138" s="2"/>
       <c r="Z138" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF138" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>75</v>
@@ -19138,7 +19135,7 @@
         <v>77</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>77</v>
@@ -19146,10 +19143,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19172,16 +19169,16 @@
         <v>85</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19192,7 +19189,7 @@
         <v>77</v>
       </c>
       <c r="S139" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>77</v>
@@ -19231,7 +19228,7 @@
         <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>75</v>
@@ -19263,10 +19260,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19292,10 +19289,10 @@
         <v>292</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19346,7 +19343,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>75</v>
@@ -19378,13 +19375,13 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C141" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C141" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -19406,19 +19403,19 @@
         <v>85</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -19467,7 +19464,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>75</v>
@@ -19482,16 +19479,16 @@
         <v>96</v>
       </c>
       <c r="AK141" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL141" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL141" t="s" s="2">
+      <c r="AM141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN141" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>77</v>
@@ -19499,10 +19496,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19614,10 +19611,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19731,10 +19728,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19760,10 +19757,10 @@
         <v>104</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -19775,7 +19772,7 @@
         <v>77</v>
       </c>
       <c r="S144" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>77</v>
@@ -19793,52 +19790,52 @@
         <v>196</v>
       </c>
       <c r="Y144" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z144" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z144" t="s" s="2">
+      <c r="AA144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF144" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AA144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF144" t="s" s="2">
+      <c r="AG144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI144" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK144" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN144" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>77</v>
@@ -19846,10 +19843,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19875,16 +19872,16 @@
         <v>180</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="O145" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -19933,7 +19930,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>75</v>
@@ -19948,16 +19945,16 @@
         <v>96</v>
       </c>
       <c r="AK145" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN145" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>77</v>
@@ -19965,10 +19962,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19994,16 +19991,16 @@
         <v>104</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -20013,7 +20010,7 @@
         <v>77</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>77</v>
@@ -20032,25 +20029,25 @@
       </c>
       <c r="Y146" s="2"/>
       <c r="Z146" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF146" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>75</v>
@@ -20074,7 +20071,7 @@
         <v>77</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>77</v>
@@ -20082,10 +20079,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20108,16 +20105,16 @@
         <v>85</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20167,7 +20164,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>75</v>
@@ -20199,10 +20196,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20228,10 +20225,10 @@
         <v>292</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20282,7 +20279,7 @@
         <v>77</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>75</v>
@@ -20314,13 +20311,13 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C149" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C149" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="D149" t="s" s="2">
         <v>77</v>
@@ -20342,19 +20339,19 @@
         <v>85</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="M149" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>77</v>
@@ -20403,7 +20400,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>75</v>
@@ -20418,16 +20415,16 @@
         <v>96</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL149" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL149" t="s" s="2">
+      <c r="AM149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN149" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>77</v>
@@ -20435,10 +20432,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20550,10 +20547,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20667,10 +20664,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20696,10 +20693,10 @@
         <v>104</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -20711,7 +20708,7 @@
         <v>77</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>77</v>
@@ -20729,52 +20726,52 @@
         <v>196</v>
       </c>
       <c r="Y152" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z152" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z152" t="s" s="2">
+      <c r="AA152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF152" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AA152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF152" t="s" s="2">
+      <c r="AG152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI152" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK152" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN152" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>77</v>
@@ -20782,10 +20779,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20811,16 +20808,16 @@
         <v>180</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N153" t="s" s="2">
+      <c r="O153" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -20869,7 +20866,7 @@
         <v>77</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>75</v>
@@ -20884,16 +20881,16 @@
         <v>96</v>
       </c>
       <c r="AK153" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN153" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>77</v>
@@ -20901,10 +20898,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20930,16 +20927,16 @@
         <v>104</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>77</v>
@@ -20949,7 +20946,7 @@
         <v>77</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>77</v>
@@ -20968,25 +20965,25 @@
       </c>
       <c r="Y154" s="2"/>
       <c r="Z154" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF154" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>75</v>
@@ -21010,7 +21007,7 @@
         <v>77</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>77</v>
@@ -21018,10 +21015,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21044,16 +21041,16 @@
         <v>85</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L155" t="s" s="2">
+      <c r="M155" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -21103,7 +21100,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>75</v>
@@ -21135,10 +21132,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21164,10 +21161,10 @@
         <v>292</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21218,7 +21215,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>75</v>
@@ -21250,13 +21247,13 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C157" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="D157" t="s" s="2">
         <v>77</v>
@@ -21278,19 +21275,19 @@
         <v>85</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>77</v>
@@ -21339,7 +21336,7 @@
         <v>77</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>75</v>
@@ -21354,16 +21351,16 @@
         <v>96</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL157" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL157" t="s" s="2">
+      <c r="AM157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN157" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>77</v>
@@ -21371,10 +21368,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21486,10 +21483,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21601,13 +21598,13 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C160" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>77</v>
@@ -21629,13 +21626,13 @@
         <v>77</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L160" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="M160" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -21718,10 +21715,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21747,10 +21744,10 @@
         <v>104</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21762,7 +21759,7 @@
         <v>77</v>
       </c>
       <c r="S161" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>77</v>
@@ -21780,52 +21777,52 @@
         <v>196</v>
       </c>
       <c r="Y161" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z161" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z161" t="s" s="2">
+      <c r="AA161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF161" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AA161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF161" t="s" s="2">
+      <c r="AG161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI161" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK161" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN161" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>77</v>
@@ -21833,10 +21830,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21862,16 +21859,16 @@
         <v>180</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>77</v>
@@ -21920,7 +21917,7 @@
         <v>77</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>75</v>
@@ -21935,16 +21932,16 @@
         <v>96</v>
       </c>
       <c r="AK162" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN162" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN162" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>77</v>
@@ -21952,10 +21949,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21981,16 +21978,16 @@
         <v>104</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -22000,7 +21997,7 @@
         <v>77</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>77</v>
@@ -22019,25 +22016,25 @@
       </c>
       <c r="Y163" s="2"/>
       <c r="Z163" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF163" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>75</v>
@@ -22061,7 +22058,7 @@
         <v>77</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>77</v>
@@ -22069,10 +22066,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22095,16 +22092,16 @@
         <v>85</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="M164" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
@@ -22154,7 +22151,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>75</v>
@@ -22186,10 +22183,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22215,10 +22212,10 @@
         <v>292</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M165" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -22269,7 +22266,7 @@
         <v>77</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>75</v>
@@ -22301,10 +22298,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22330,16 +22327,16 @@
         <v>104</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>77</v>
@@ -22367,11 +22364,11 @@
         <v>196</v>
       </c>
       <c r="Y166" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z166" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z166" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA166" t="s" s="2">
         <v>77</v>
       </c>
@@ -22388,7 +22385,7 @@
         <v>77</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>75</v>
@@ -22403,16 +22400,16 @@
         <v>96</v>
       </c>
       <c r="AK166" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AL166" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AL166" t="s" s="2">
+      <c r="AM166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN166" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>77</v>
@@ -22420,10 +22417,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22446,19 +22443,19 @@
         <v>85</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="M167" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="N167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>77</v>
@@ -22507,7 +22504,7 @@
         <v>77</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>75</v>
@@ -22522,27 +22519,27 @@
         <v>96</v>
       </c>
       <c r="AK167" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AL167" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AL167" t="s" s="2">
+      <c r="AM167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN167" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="AM167" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN167" t="s" s="2">
+      <c r="AO167" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="AO167" t="s" s="2">
-        <v>612</v>
       </c>
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22565,19 +22562,19 @@
         <v>85</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M168" t="s" s="2">
+      <c r="N168" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="N168" t="s" s="2">
+      <c r="O168" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -22626,7 +22623,7 @@
         <v>77</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>75</v>
@@ -22641,7 +22638,7 @@
         <v>96</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>184</v>
@@ -22650,7 +22647,7 @@
         <v>77</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>77</v>
@@ -22658,10 +22655,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22684,19 +22681,19 @@
         <v>77</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="M169" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="N169" t="s" s="2">
+      <c r="O169" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>77</v>
@@ -22745,7 +22742,7 @@
         <v>77</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>75</v>
@@ -22760,16 +22757,16 @@
         <v>96</v>
       </c>
       <c r="AK169" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN169" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>77</v>
@@ -22777,10 +22774,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22806,14 +22803,14 @@
         <v>202</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -22838,14 +22835,14 @@
         <v>77</v>
       </c>
       <c r="X170" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="Y170" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="Y170" t="s" s="2">
+      <c r="Z170" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="Z170" t="s" s="2">
-        <v>635</v>
-      </c>
       <c r="AA170" t="s" s="2">
         <v>77</v>
       </c>
@@ -22862,7 +22859,7 @@
         <v>77</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>75</v>
@@ -22877,16 +22874,16 @@
         <v>96</v>
       </c>
       <c r="AK170" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AL170" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="AL170" t="s" s="2">
+      <c r="AM170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN170" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="AM170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN170" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>77</v>
@@ -22894,10 +22891,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22920,19 +22917,19 @@
         <v>77</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="M171" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="N171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>77</v>
@@ -22981,7 +22978,7 @@
         <v>77</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>75</v>
@@ -22996,7 +22993,7 @@
         <v>96</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>184</v>
@@ -23005,7 +23002,7 @@
         <v>77</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>77</v>
@@ -23013,10 +23010,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23039,19 +23036,19 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="M172" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>77</v>
@@ -23100,7 +23097,7 @@
         <v>77</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>75</v>
@@ -23115,7 +23112,7 @@
         <v>96</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>184</v>
@@ -23124,7 +23121,7 @@
         <v>77</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>77</v>
@@ -23132,10 +23129,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23158,19 +23155,19 @@
         <v>77</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N173" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="M173" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N173" t="s" s="2">
+      <c r="O173" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -23219,7 +23216,7 @@
         <v>77</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>75</v>
@@ -23231,10 +23228,10 @@
         <v>77</v>
       </c>
       <c r="AJ173" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AK173" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>184</v>
@@ -23251,10 +23248,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23366,10 +23363,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23479,13 +23476,13 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C176" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="C176" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -23507,13 +23504,13 @@
         <v>77</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="L176" t="s" s="2">
+      <c r="M176" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23596,14 +23593,14 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
@@ -23625,10 +23622,10 @@
         <v>130</v>
       </c>
       <c r="L177" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="N177" t="s" s="2">
         <v>164</v>
@@ -23683,7 +23680,7 @@
         <v>77</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>75</v>
@@ -23715,10 +23712,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23744,14 +23741,14 @@
         <v>202</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -23779,11 +23776,11 @@
         <v>196</v>
       </c>
       <c r="Y178" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="Z178" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="Z178" t="s" s="2">
-        <v>679</v>
-      </c>
       <c r="AA178" t="s" s="2">
         <v>77</v>
       </c>
@@ -23800,7 +23797,7 @@
         <v>77</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>75</v>
@@ -23815,7 +23812,7 @@
         <v>96</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>184</v>
@@ -23824,7 +23821,7 @@
         <v>77</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>77</v>
@@ -23832,10 +23829,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23947,10 +23944,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24064,10 +24061,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24183,10 +24180,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24298,10 +24295,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24415,10 +24412,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24444,13 +24441,13 @@
         <v>98</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>234</v>
@@ -24534,10 +24531,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24651,10 +24648,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24680,10 +24677,10 @@
         <v>104</v>
       </c>
       <c r="L186" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -24768,10 +24765,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24797,10 +24794,10 @@
         <v>180</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
@@ -24885,10 +24882,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25004,10 +25001,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25123,10 +25120,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25152,14 +25149,14 @@
         <v>364</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>77</v>
@@ -25208,7 +25205,7 @@
         <v>77</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>75</v>
@@ -25232,7 +25229,7 @@
         <v>77</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AO190" t="s" s="2">
         <v>77</v>
@@ -25240,10 +25237,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25355,10 +25352,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25472,10 +25469,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25504,10 +25501,10 @@
         <v>382</v>
       </c>
       <c r="M193" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="N193" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>385</v>
@@ -25591,10 +25588,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25710,10 +25707,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25827,10 +25824,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25942,10 +25939,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26055,10 +26052,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C198" t="s" s="2">
         <v>419</v>
@@ -26172,10 +26169,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26287,10 +26284,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26316,10 +26313,10 @@
         <v>180</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="N200" t="s" s="2">
         <v>434</v>
@@ -26404,10 +26401,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26519,10 +26516,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26634,10 +26631,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -26751,10 +26748,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26777,19 +26774,19 @@
         <v>77</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L204" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M204" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="M204" t="s" s="2">
+      <c r="N204" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="N204" t="s" s="2">
-        <v>725</v>
-      </c>
       <c r="O204" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>77</v>
@@ -26838,7 +26835,7 @@
         <v>77</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>75</v>
@@ -26853,7 +26850,7 @@
         <v>96</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AL204" t="s" s="2">
         <v>184</v>
@@ -26862,7 +26859,7 @@
         <v>77</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>77</v>
@@ -26870,10 +26867,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26896,17 +26893,17 @@
         <v>77</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="L205" t="s" s="2">
+      <c r="M205" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>77</v>
@@ -26955,7 +26952,7 @@
         <v>77</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>75</v>
@@ -26970,7 +26967,7 @@
         <v>96</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AL205" t="s" s="2">
         <v>184</v>
@@ -26979,7 +26976,7 @@
         <v>77</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>77</v>
@@ -26987,10 +26984,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27016,14 +27013,14 @@
         <v>104</v>
       </c>
       <c r="L206" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>77</v>
@@ -27051,11 +27048,11 @@
         <v>196</v>
       </c>
       <c r="Y206" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z206" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z206" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA206" t="s" s="2">
         <v>77</v>
       </c>
@@ -27072,7 +27069,7 @@
         <v>77</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>75</v>
@@ -27087,7 +27084,7 @@
         <v>96</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AL206" t="s" s="2">
         <v>184</v>
@@ -27096,7 +27093,7 @@
         <v>77</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>77</v>
@@ -27104,10 +27101,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27133,14 +27130,14 @@
         <v>299</v>
       </c>
       <c r="L207" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="M207" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>77</v>
@@ -27189,7 +27186,7 @@
         <v>77</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>75</v>
@@ -27198,13 +27195,13 @@
         <v>84</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AL207" t="s" s="2">
         <v>184</v>
@@ -27213,7 +27210,7 @@
         <v>77</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>77</v>
@@ -27221,10 +27218,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27250,10 +27247,10 @@
         <v>292</v>
       </c>
       <c r="L208" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -27304,7 +27301,7 @@
         <v>77</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>75</v>
@@ -27319,7 +27316,7 @@
         <v>96</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>184</v>
@@ -27336,10 +27333,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27362,19 +27359,19 @@
         <v>77</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="N209" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M209" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="N209" t="s" s="2">
+      <c r="O209" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -27423,7 +27420,7 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>75</v>
@@ -27438,10 +27435,10 @@
         <v>96</v>
       </c>
       <c r="AK209" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="AL209" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="AL209" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>77</v>
@@ -27455,10 +27452,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27570,10 +27567,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27687,14 +27684,14 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
@@ -27716,10 +27713,10 @@
         <v>130</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="N212" t="s" s="2">
         <v>164</v>
@@ -27774,7 +27771,7 @@
         <v>77</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>75</v>
@@ -27806,10 +27803,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27835,16 +27832,16 @@
         <v>202</v>
       </c>
       <c r="L213" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>760</v>
       </c>
-      <c r="M213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>761</v>
       </c>
-      <c r="N213" t="s" s="2">
+      <c r="O213" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -27872,11 +27869,11 @@
         <v>196</v>
       </c>
       <c r="Y213" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="Z213" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="Z213" t="s" s="2">
-        <v>765</v>
-      </c>
       <c r="AA213" t="s" s="2">
         <v>77</v>
       </c>
@@ -27893,7 +27890,7 @@
         <v>77</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>84</v>
@@ -27908,16 +27905,16 @@
         <v>96</v>
       </c>
       <c r="AK213" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AL213" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="AL213" t="s" s="2">
+      <c r="AM213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN213" t="s" s="2">
         <v>767</v>
-      </c>
-      <c r="AM213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN213" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>77</v>
@@ -27925,10 +27922,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28040,10 +28037,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28157,10 +28154,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28276,10 +28273,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28391,10 +28388,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28508,10 +28505,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28537,13 +28534,13 @@
         <v>98</v>
       </c>
       <c r="L219" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>234</v>
@@ -28627,10 +28624,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28744,10 +28741,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28773,10 +28770,10 @@
         <v>104</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
@@ -28861,10 +28858,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28890,10 +28887,10 @@
         <v>180</v>
       </c>
       <c r="L222" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M222" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
@@ -28978,10 +28975,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29097,10 +29094,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29216,10 +29213,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29245,16 +29242,16 @@
         <v>258</v>
       </c>
       <c r="L225" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="M225" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="N225" t="s" s="2">
+      <c r="O225" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="O225" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>77</v>
@@ -29303,7 +29300,7 @@
         <v>77</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>75</v>
@@ -29318,16 +29315,16 @@
         <v>96</v>
       </c>
       <c r="AK225" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AL225" t="s" s="2">
         <v>785</v>
       </c>
-      <c r="AL225" t="s" s="2">
+      <c r="AM225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN225" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="AM225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN225" t="s" s="2">
-        <v>787</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>77</v>
@@ -29335,14 +29332,14 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" t="s" s="2">
@@ -29361,16 +29358,16 @@
         <v>77</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="L226" t="s" s="2">
         <v>790</v>
       </c>
-      <c r="L226" t="s" s="2">
+      <c r="M226" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="N226" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
@@ -29420,7 +29417,7 @@
         <v>77</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>75</v>
@@ -29435,7 +29432,7 @@
         <v>96</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AL226" t="s" s="2">
         <v>184</v>
@@ -29444,7 +29441,7 @@
         <v>77</v>
       </c>
       <c r="AN226" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AO226" t="s" s="2">
         <v>77</v>
@@ -29452,10 +29449,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -29567,10 +29564,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -29684,10 +29681,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -29713,13 +29710,13 @@
         <v>180</v>
       </c>
       <c r="L229" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="N229" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>799</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
@@ -29769,16 +29766,16 @@
         <v>77</v>
       </c>
       <c r="AF229" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI229" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="AG229" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH229" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI229" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>96</v>
@@ -29801,10 +29798,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -29830,13 +29827,13 @@
         <v>98</v>
       </c>
       <c r="L230" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="M230" t="s" s="2">
         <v>803</v>
       </c>
-      <c r="M230" t="s" s="2">
+      <c r="N230" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
@@ -29862,31 +29859,31 @@
         <v>77</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y230" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="Z230" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="Z230" t="s" s="2">
+      <c r="AA230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF230" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="AA230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF230" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>75</v>
@@ -29918,10 +29915,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29947,13 +29944,13 @@
         <v>168</v>
       </c>
       <c r="L231" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="M231" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="M231" t="s" s="2">
+      <c r="N231" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>812</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -30003,7 +30000,7 @@
         <v>77</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>75</v>
@@ -30018,7 +30015,7 @@
         <v>96</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>77</v>
@@ -30035,10 +30032,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30064,13 +30061,13 @@
         <v>180</v>
       </c>
       <c r="L232" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="N232" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
@@ -30120,7 +30117,7 @@
         <v>77</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>75</v>
@@ -30152,10 +30149,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30181,16 +30178,16 @@
         <v>299</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="M233" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>821</v>
       </c>
-      <c r="N233" t="s" s="2">
+      <c r="O233" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>77</v>
@@ -30239,7 +30236,7 @@
         <v>77</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>75</v>
@@ -30254,10 +30251,10 @@
         <v>96</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>77</v>
@@ -30271,10 +30268,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30297,19 +30294,19 @@
         <v>85</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L234" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="M234" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>827</v>
       </c>
-      <c r="N234" t="s" s="2">
+      <c r="O234" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>77</v>
@@ -30358,7 +30355,7 @@
         <v>77</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>75</v>
@@ -30373,7 +30370,7 @@
         <v>96</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AL234" t="s" s="2">
         <v>184</v>
@@ -30390,10 +30387,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30505,10 +30502,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30622,14 +30619,14 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" t="s" s="2">
@@ -30651,10 +30648,10 @@
         <v>130</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M237" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="N237" t="s" s="2">
         <v>164</v>
@@ -30709,7 +30706,7 @@
         <v>77</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>75</v>
@@ -30741,10 +30738,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -30767,16 +30764,16 @@
         <v>85</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="L238" t="s" s="2">
+      <c r="M238" t="s" s="2">
         <v>836</v>
       </c>
-      <c r="M238" t="s" s="2">
+      <c r="N238" t="s" s="2">
         <v>837</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
@@ -30826,7 +30823,7 @@
         <v>77</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>84</v>
@@ -30850,7 +30847,7 @@
         <v>77</v>
       </c>
       <c r="AN238" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AO238" t="s" s="2">
         <v>77</v>
@@ -30858,10 +30855,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -30887,10 +30884,10 @@
         <v>104</v>
       </c>
       <c r="L239" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="M239" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>842</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -30920,11 +30917,11 @@
         <v>196</v>
       </c>
       <c r="Y239" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="Z239" t="s" s="2">
         <v>842</v>
       </c>
-      <c r="Z239" t="s" s="2">
-        <v>843</v>
-      </c>
       <c r="AA239" t="s" s="2">
         <v>77</v>
       </c>
@@ -30941,7 +30938,7 @@
         <v>77</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>84</v>
@@ -30956,7 +30953,7 @@
         <v>96</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AL239" t="s" s="2">
         <v>184</v>

--- a/docs/StructureDefinition-PacienteLE.xlsx
+++ b/docs/StructureDefinition-PacienteLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PacienteLE.xlsx
+++ b/docs/StructureDefinition-PacienteLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
